--- a/records/production.xlsx
+++ b/records/production.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\eb-corpus\records\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\knowledge-project\kp-corpus1\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18108,7 +18108,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18382,6 +18382,9 @@
       </c>
       <c r="K9" s="3">
         <v>43549</v>
+      </c>
+      <c r="L9" s="3">
+        <v>43595</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
